--- a/Docx/Experiments-java.xlsx
+++ b/Docx/Experiments-java.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Practicals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Practicals\Docx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD484753-4839-442F-B755-468A5A4FB947}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8484876F-CD7D-425A-BA54-1259D7213D89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{91CEFA30-42C9-497A-86E0-3C971BA3561D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>S. no.</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>On progress</t>
-  </si>
-  <si>
     <t>Write a program to find the sum of 3 numbers</t>
   </si>
   <si>
@@ -49,6 +46,24 @@
   </si>
   <si>
     <t>Write a java program to find whether the given number is odd or even using a control statement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develop a java application to implement currency converter,distance converter and ,time converter. </t>
+  </si>
+  <si>
+    <t>Write a java program to find the factorial of a number</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Generate pay slips for the employees with their gross and net salar</t>
+  </si>
+  <si>
+    <t>Not completed</t>
+  </si>
+  <si>
+    <t>Write a java program to find the Fibonacci series of a number.</t>
   </si>
 </sst>
 </file>
@@ -122,7 +137,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -136,7 +151,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -453,7 +468,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,10 +495,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -492,10 +507,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -504,43 +519,60 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f t="shared" ref="C7:C26" si="1">IF(B7="","N/A","Not completed")</f>
+        <v>Not completed</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
@@ -548,7 +580,9 @@
         <v>8</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
@@ -556,7 +590,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
@@ -564,7 +601,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -572,7 +612,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
@@ -580,7 +623,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -588,7 +634,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
@@ -596,7 +645,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
@@ -604,7 +656,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
@@ -612,7 +667,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
@@ -620,7 +678,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
@@ -628,7 +689,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -636,7 +700,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -644,7 +711,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
@@ -652,7 +722,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
@@ -660,7 +733,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="4"/>
+      <c r="C23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
@@ -668,7 +744,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="4"/>
+      <c r="C24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
@@ -676,7 +755,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="6"/>
-      <c r="C25" s="4"/>
+      <c r="C25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
@@ -684,26 +766,26 @@
         <v>25</v>
       </c>
       <c r="B26" s="6"/>
-      <c r="C26" s="4"/>
+      <c r="C26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Completed">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="On progress">
+      <formula>NOT(ISERROR(SEARCH("On progress",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="Not completed">
+      <formula>NOT(ISERROR(SEARCH("Not completed",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="9" operator="containsText" text="Completed">
       <formula>NOT(ISERROR(SEARCH("Completed",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Not completed">
-      <formula>NOT(ISERROR(SEARCH("Not completed",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="On progress">
-      <formula>NOT(ISERROR(SEARCH("On progress",C2)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{E5A1BF59-A139-47DF-BF3D-AEA2431214B6}">
-      <formula1>"Not completed, On progress,Completed,N/A"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{3EEB0C06-16C1-4D8D-A37F-8F942312DE9D}">
-      <formula1>"Not completed, On progress,Completed,N/A"</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{E5A1BF59-A139-47DF-BF3D-AEA2431214B6}">
+      <formula1>"Not completed,On progress,Completed,N/A"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docx/Experiments-java.xlsx
+++ b/Docx/Experiments-java.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Practicals\Docx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8484876F-CD7D-425A-BA54-1259D7213D89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB88766-1372-42BF-8386-F2592EFFE3EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{91CEFA30-42C9-497A-86E0-3C971BA3561D}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="9072" xr2:uid="{91CEFA30-42C9-497A-86E0-3C971BA3561D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>S. no.</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>On progress</t>
   </si>
   <si>
     <t>Write a program to find the sum of 3 numbers</t>
@@ -468,7 +471,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -507,10 +510,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -519,10 +522,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -531,10 +534,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -543,10 +546,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -555,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="str">
         <f t="shared" ref="C7:C26" si="1">IF(B7="","N/A","Not completed")</f>
@@ -568,10 +571,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -581,7 +584,7 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">

--- a/Docx/Experiments-java.xlsx
+++ b/Docx/Experiments-java.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Practicals\Docx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB88766-1372-42BF-8386-F2592EFFE3EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FABC4B-2B37-4C57-B0A6-F2E5E6EBE941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="9072" xr2:uid="{91CEFA30-42C9-497A-86E0-3C971BA3561D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>S. no.</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>On progress</t>
-  </si>
-  <si>
     <t>Write a program to find the sum of 3 numbers</t>
   </si>
   <si>
@@ -60,13 +57,10 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Generate pay slips for the employees with their gross and net salar</t>
-  </si>
-  <si>
-    <t>Not completed</t>
-  </si>
-  <si>
     <t>Write a java program to find the Fibonacci series of a number.</t>
+  </si>
+  <si>
+    <t>Generate pay slips for the employees with their gross and net salary</t>
   </si>
 </sst>
 </file>
@@ -471,7 +465,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,10 +492,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -510,10 +504,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -522,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -534,10 +528,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -546,10 +540,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -571,10 +565,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -584,7 +578,7 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">

--- a/Docx/Experiments-java.xlsx
+++ b/Docx/Experiments-java.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Practicals\Docx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FABC4B-2B37-4C57-B0A6-F2E5E6EBE941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9354EBF1-A0B9-4C13-BFD4-DBA59510E376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="9072" xr2:uid="{91CEFA30-42C9-497A-86E0-3C971BA3561D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>S. no.</t>
   </si>
@@ -54,13 +54,22 @@
     <t>Write a java program to find the factorial of a number</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Write a java program to find the Fibonacci series of a number.</t>
   </si>
   <si>
     <t>Generate pay slips for the employees with their gross and net salary</t>
+  </si>
+  <si>
+    <t>Design a Java interface for ADT Stack</t>
+  </si>
+  <si>
+    <t>Write a java program to find the swap of two numbers</t>
+  </si>
+  <si>
+    <t>Write a program to perform string operations using ArrayList</t>
+  </si>
+  <si>
+    <t>Write a java program to find the palindrome of a number</t>
   </si>
 </sst>
 </file>
@@ -465,7 +474,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="str">
         <f t="shared" ref="C7:C26" si="1">IF(B7="","N/A","Not completed")</f>
@@ -565,7 +574,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
@@ -576,9 +585,12 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Not completed</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -586,10 +598,12 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="C10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
+        <v>Not completed</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -597,10 +611,12 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
+        <v>Not completed</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -608,10 +624,12 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C12" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
+        <v>Not completed</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
